--- a/doc/프로젝트 계획서/서울_3반_A303_김순빈.xlsx
+++ b/doc/프로젝트 계획서/서울_3반_A303_김순빈.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,19 +240,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버</t>
-  </si>
-  <si>
-    <t>교육생 개발 서버 (GPU)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>런닝 메이트 매칭 및 기록 측정 앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화 내용 및 런닝 기록 분석 기반 사용자 관심 혹은 운동 성향, 
-정보 분석시 사용하는 NLP 모델 사용 용도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,109 +260,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구글 클라우드 (FIREBASE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  매칭 과정 및 운동 정보 공유 커뮤니티 상의 대화내용 기록 저장소 용도. 이후, 사용자 관심도 혹은 운동 성향 등 파악용 데이터로 활용할 예정
-2. 사용자의 경로 분석에 사용될 이미지 혹은 map관련 확장자 파일을 저장하기 위한 스토리지가 필요
-3. FCM 및 인증관련 서비스에 사용할 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$100/월
-(사용량 과금)</t>
+    <t>도서</t>
+  </si>
+  <si>
+    <t>9791158391850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791158391447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791160508383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791161754017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791161752433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 웹 개발을 위한 가이드라인 및 정보 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도커를 통한 배포 작업을 위한 실습 정보 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트를 프로젝트에 접목시키기 위한 정보 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGINX를 통한 웹 서버를 구축, 보안과 같은 기술 고도화 적용을 위한 정보 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔리제이 툴 사용과 프로젝트 적용하여 원활한 프로젝틀 진행하기 위한 정보 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~12/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~11/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jetbrains.com/idea/</t>
+  </si>
+  <si>
+    <t>$149.00/년
+$14.90/달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실전! 스프링 5와 Vue.js 2로 시작하는 모던 웹 애플리케이션 개발
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.prdNo=326177409&amp;gclid=CjwKCAjw_Y_8BRBiEiwA5MCBJqTJgwAq27_OPmU6IPexF2JNqu3nQXBMgZo3NfN4y1VCD4N0jNZotRoCsaIQAvD_BwE)</t>
+  </si>
+  <si>
+    <t>도커/쿠버네티스를 활용한 컨테이너 개발 실전 입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=303220207&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=310473245&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nginx HTTP 서버 : HTTP 서버를 사용한 고성능 웹 서비스 구축
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=332119185&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인텔리제이 IDEA : 기본 사용법부터 고급 기능까지 마스터하기
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=298190107&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=img&amp;bid4=001)</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/apis/library/geolocation.googleapis.com?folder=&amp;hl=ko&amp;organizationId=&amp;project=brave-drive-283908</t>
+  </si>
+  <si>
+    <t>자바와 JUnit을 활용한 실용주의 단위 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글맵 API
+(1) Geolocation API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request 20000번이상시 추가 과금 (이전은 무료)
+(1) Geolocation API(USD5.00 /1K requests)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(1) Geolocation API
-런닝이라는 주제를 가진 개발 프로젝트인 만큼 사용자의 실시간 런닝 위치 추적 및 경로 추천에 사용할 예정. (정확한 위치 파악 및 경로 추적에 구글맵 API 구매가 필요)
-(2) Distance Matrix API
-런닝 경로 추적 및 기록을 위해 사용
-(3) Directions API
-길찾기 API, 더욱 효과적인 경로 추천 및 코너링과 경로 추적에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글맵 API
-(1) Geolocation API
-(2) Distance Matrix API
-(3) Directions API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request 20000번이상시 추가 과금 (이전은 무료)
-(1) Geolocation API(USD5.00 /1K requests)
-(2) Distance Matrix API(US10.00 /1K requests)
-(3) Directions API(USD5.00 /1K requests)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서</t>
-  </si>
-  <si>
-    <t>실전! 스프링 5와 Vue.js 2로 시작하는 모던 웹 애플리케이션 개발
-(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.prdNo=326177409&amp;gclid=CjwKCAjw_Y_8BRBiEiwA5MCBJqTJgwAq27_OPmU6IPexF2JNqu3nQXBMgZo3NfN4y1VCD4N0jNZotRoCsaIQAvD_BwE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791158391850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도커/쿠버네티스를 활용한 컨테이너 개발 실전 입문
-(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=303220207&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791158391447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바와 JUnit을 활용한 실용주의 단위 테스트
-(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=310473245&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791160508383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nginx HTTP 서버 : HTTP 서버를 사용한 고성능 웹 서비스 구축
-(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=332119185&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=title&amp;bid4=001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인텔리제이 IDEA : 기본 사용법부터 고급 기능까지 마스터하기
-(http://book.interpark.com/product/BookDisplay.do?_method=detail&amp;sc.shopNo=0000400000&amp;sc.prdNo=298190107&amp;sc.saNo=003002001&amp;bid1=search&amp;bid2=product&amp;bid3=img&amp;bid4=001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791161754017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791161752433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응형 웹 개발을 위한 가이드라인 및 정보 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도커를 통한 배포 작업을 위한 실습 정보 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위 테스트를 프로젝트에 접목시키기 위한 정보 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NGINX를 통한 웹 서버를 구축, 보안과 같은 기술 고도화 적용을 위한 정보 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인텔리제이 툴 사용과 프로젝트 적용하여 원활한 프로젝틀 진행하기 위한 정보 습득</t>
+런닝이라는 주제를 가진 개발 프로젝트인 만큼 사용자의 실시간 런닝 위치 추적 및 경로 추천에 사용할 예정. (정확한 위치 파악 및 경로 추적에 구글맵 API 구매가 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +428,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -492,12 +507,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,9 +546,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -824,36 +861,42 @@
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="32.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="75" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="255" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="255" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="4"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="4"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="4"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +918,7 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -887,574 +930,651 @@
       <c r="K5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>348848</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>348848</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="1">
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="K7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="11">
         <v>348848</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="I8" s="14">
+        <v>32400</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>348848</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="I9" s="14">
+        <v>25200</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="11">
         <v>348848</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3" t="s">
+      <c r="I10" s="14">
+        <v>23400</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>348848</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="14">
+        <v>31500</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>348848</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I12" s="14">
+        <v>25200</v>
+      </c>
+      <c r="J12" s="11">
         <v>1</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="K12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4">
-        <v>32400</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="L12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4">
-        <v>25200</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="4">
-        <v>23400</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="4">
-        <v>31500</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>348848</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4">
-        <v>25200</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="8:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H100" s="5"/>
+      <c r="M12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="4"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="4"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="4"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="4"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="4"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="4"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="4"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="4"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="4"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="4"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="4"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="4"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="4"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="4"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="4"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="4"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="4"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="4"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="4"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="4"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H33" s="4"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="4"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="4"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H37" s="4"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="4"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="4"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="4"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="4"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H42" s="4"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="4"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="4"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="4"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="4"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H47" s="4"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="4"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="4"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="4"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="4"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H52" s="4"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H53" s="4"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H54" s="4"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H55" s="4"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="4"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="4"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H58" s="4"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H59" s="4"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H60" s="4"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H61" s="4"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H62" s="4"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H63" s="4"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="4"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H65" s="4"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H66" s="4"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H67" s="4"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H68" s="4"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H69" s="4"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H70" s="4"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H71" s="4"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H72" s="4"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H73" s="4"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H74" s="4"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H75" s="4"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H76" s="4"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H77" s="4"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H78" s="4"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H79" s="4"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H80" s="4"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H81" s="4"/>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H82" s="4"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H83" s="4"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="4"/>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H85" s="4"/>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H86" s="4"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H87" s="4"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H88" s="4"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H89" s="4"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H90" s="4"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H91" s="4"/>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H92" s="4"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H93" s="4"/>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H94" s="4"/>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H95" s="4"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H96" s="4"/>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H97" s="4"/>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H98" s="4"/>
+      <c r="M98" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1462,19 +1582,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F100</xm:sqref>
+          <xm:sqref>F6:F98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A100</xm:sqref>
+          <xm:sqref>A6:A98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B100</xm:sqref>
+          <xm:sqref>B6:B98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
